--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{764E3F71-AA4A-4575-96D2-505000381A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90A961B9-0640-4313-AB08-C105451A5A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3EE7DB10-D5FB-408A-A910-B3A7EF27B269}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{69793BDC-277A-4436-B299-3B62D703B161}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -6438,7 +6438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F990BD40-1ECD-4C7B-B0FF-716F262F3F05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD490D-BC8C-4106-ABEE-0173790F6650}">
   <dimension ref="A2:P107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9363,7 +9363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4735BF2-F23E-4A7E-9F90-1BDD27A32E1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA2729-A22A-417F-AE2B-DC93094F2665}">
   <dimension ref="A2:T397"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -31504,7 +31504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BDA0E2-30F3-4A40-8CDF-FAFCC313F606}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D28F87-FEB5-49CD-AF59-C97AFF838B46}">
   <dimension ref="A2:S834"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB4994D-4CB8-4E95-88CE-C55C258FB398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6953F45-53F4-4E34-BFEF-F08D542FEA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D64D3D09-417B-48F1-95E2-B12F485A0D95}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{222B2BCF-65B8-4226-B5BA-513A0E54C18E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA9D2E9C-2D5C-456A-89EF-630A3A4280F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADCC802-9F3C-4A2C-8A11-959AC53D09CA}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65EB747-A338-4936-B40F-42BBB7C0135A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F7B8E5-43A2-42FC-AD2F-9E2D14F1B04E}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32FCA80-1BBA-4420-9A74-6C0EDAC9C8AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2F8D5-1369-4802-A82B-0FCF3294BCDA}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6953F45-53F4-4E34-BFEF-F08D542FEA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E98567-A606-443B-8FC2-DAD207503749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{222B2BCF-65B8-4226-B5BA-513A0E54C18E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2B305DD9-8B16-4414-A4B1-CA171AA5F3FA}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADCC802-9F3C-4A2C-8A11-959AC53D09CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6524B855-037F-4522-85E3-72F1FA826037}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F7B8E5-43A2-42FC-AD2F-9E2D14F1B04E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AED0C9-72A6-49BE-9B72-C39F7033637A}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF2F8D5-1369-4802-A82B-0FCF3294BCDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ED64C2-FB91-4423-9608-0E21DFD14902}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92E98567-A606-443B-8FC2-DAD207503749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC95C8A-B903-40A4-ABB5-41C5F2DC4176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2B305DD9-8B16-4414-A4B1-CA171AA5F3FA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C1BE2583-8A16-4485-99CF-10A3B0179F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6524B855-037F-4522-85E3-72F1FA826037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19916C48-D51E-4AE2-8850-486AD15291EE}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AED0C9-72A6-49BE-9B72-C39F7033637A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013341BB-7F42-420B-9C46-D88883384ECA}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98ED64C2-FB91-4423-9608-0E21DFD14902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23C4C9-0B31-4791-B517-B0C5FBB7BE18}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC95C8A-B903-40A4-ABB5-41C5F2DC4176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFEDE5D-5F4E-408A-BF18-6F879DC7B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{C1BE2583-8A16-4485-99CF-10A3B0179F2F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{465BE36B-7B51-47C8-A3AF-A613EC14437E}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19916C48-D51E-4AE2-8850-486AD15291EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D7DF47-94E6-41BE-B24E-BA5CAD343B37}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013341BB-7F42-420B-9C46-D88883384ECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AFF7C-0F7B-40B0-9A14-BF3C50652898}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB23C4C9-0B31-4791-B517-B0C5FBB7BE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577CBC8B-B081-41DA-9758-704F119404A0}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBFEDE5D-5F4E-408A-BF18-6F879DC7B2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16AEAF7-B0A1-4673-9262-97DA2EC5A205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{465BE36B-7B51-47C8-A3AF-A613EC14437E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A8ECD435-D576-473A-A11E-F1D5D760B31F}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D7DF47-94E6-41BE-B24E-BA5CAD343B37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A66546-0A73-4574-B30A-0EE81A70A917}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83AFF7C-0F7B-40B0-9A14-BF3C50652898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F761D92-E15F-4C4C-9A15-8D02733C1FED}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577CBC8B-B081-41DA-9758-704F119404A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1932F5AB-B3CC-47E9-8236-BAFD503AD557}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E16AEAF7-B0A1-4673-9262-97DA2EC5A205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2974BDB8-7770-46ED-AE1E-7ACEC02A93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A8ECD435-D576-473A-A11E-F1D5D760B31F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7BCE9E13-043B-4985-8AAE-1D894D0B3B91}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A66546-0A73-4574-B30A-0EE81A70A917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC2C298-B0FE-479E-A24A-7EFB158DDF88}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F761D92-E15F-4C4C-9A15-8D02733C1FED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8449B34D-C49E-4F85-B355-413C03419BBC}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1932F5AB-B3CC-47E9-8236-BAFD503AD557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D675F4C-FB0B-4F10-B812-A64A657C2B33}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2974BDB8-7770-46ED-AE1E-7ACEC02A93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87EA5FA-D38C-447D-B9B6-DE67603D4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7BCE9E13-043B-4985-8AAE-1D894D0B3B91}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7D9EC362-5348-4A92-98AF-B3F1DC0EDD41}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC2C298-B0FE-479E-A24A-7EFB158DDF88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FF8AD4-A3F1-404E-BC7E-806A50BF2A01}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8449B34D-C49E-4F85-B355-413C03419BBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D0985-8760-4E34-B0A7-D853EAA17C11}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D675F4C-FB0B-4F10-B812-A64A657C2B33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CF98D-9A7D-491B-86BF-BB7A2185D4DB}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A87EA5FA-D38C-447D-B9B6-DE67603D4825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15534F74-88BF-49D3-A079-C535349402E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{7D9EC362-5348-4A92-98AF-B3F1DC0EDD41}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{466F2233-2589-4D06-B055-20DF503CDA1B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FF8AD4-A3F1-404E-BC7E-806A50BF2A01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6116A5CC-C43A-4455-AD5D-0CE4800172DF}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278D0985-8760-4E34-B0A7-D853EAA17C11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB39C576-8283-444C-A2C5-AD6AF47DAE51}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CF98D-9A7D-491B-86BF-BB7A2185D4DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8E90F-2E28-4F8D-BF82-BB7F61944AAA}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15534F74-88BF-49D3-A079-C535349402E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F00933F-9139-4B7C-9714-C748C25B68EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{466F2233-2589-4D06-B055-20DF503CDA1B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{76762388-92C8-48CE-975D-E82303DE2731}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6116A5CC-C43A-4455-AD5D-0CE4800172DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF758533-4C9B-4D51-9354-F5B7FF7EC10F}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB39C576-8283-444C-A2C5-AD6AF47DAE51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77626460-62F1-48F1-8151-7D8226476956}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8E90F-2E28-4F8D-BF82-BB7F61944AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B79E57-9E25-4B52-B1FE-55FCF08BD6AD}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F00933F-9139-4B7C-9714-C748C25B68EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE0719F-4576-43A3-B3E0-B61B4DB885A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{76762388-92C8-48CE-975D-E82303DE2731}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A0E45D63-1E96-4776-B4A3-71583B226E7D}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF758533-4C9B-4D51-9354-F5B7FF7EC10F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48E227-F1A4-43EE-BF90-743778743739}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77626460-62F1-48F1-8151-7D8226476956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C924335-DB4E-4B9D-8AB0-3A9AEF93A912}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B79E57-9E25-4B52-B1FE-55FCF08BD6AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A65850-A517-45E1-B418-BF4FD1BD3A1C}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BE0719F-4576-43A3-B3E0-B61B4DB885A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43F66F3-61E7-455D-9F0C-B46C0C813D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A0E45D63-1E96-4776-B4A3-71583B226E7D}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2DD16053-35EA-4658-8B0F-97419EA1DDE1}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA48E227-F1A4-43EE-BF90-743778743739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D6E9D-5DC9-45C5-AC6D-8DA989F26B51}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C924335-DB4E-4B9D-8AB0-3A9AEF93A912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7836AA-184C-433E-BDDB-218A925EB5A8}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A65850-A517-45E1-B418-BF4FD1BD3A1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE702C-EC5E-4D57-B1D2-A3B0BA215202}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43F66F3-61E7-455D-9F0C-B46C0C813D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B595056-25AC-4B0D-AEFA-8B0C90639054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{2DD16053-35EA-4658-8B0F-97419EA1DDE1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E45AC91F-03A2-49F5-9B62-5190F018CB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669D6E9D-5DC9-45C5-AC6D-8DA989F26B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29976119-9F1E-4944-8815-9766553BA3F5}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7836AA-184C-433E-BDDB-218A925EB5A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB4BBE1-C322-4477-96C5-58656A975C1F}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EBE702C-EC5E-4D57-B1D2-A3B0BA215202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D2B2F6-3097-4E22-A65F-6296469F47C2}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B595056-25AC-4B0D-AEFA-8B0C90639054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5492437-00E1-4307-8723-E61B235E4912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E45AC91F-03A2-49F5-9B62-5190F018CB5A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3E580B0D-B661-419B-9CAB-7FA6887D5F65}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29976119-9F1E-4944-8815-9766553BA3F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FF9C6-EE8E-49D8-93BC-94B2402DE5CF}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB4BBE1-C322-4477-96C5-58656A975C1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01201B38-97F8-4FEE-B63D-0FEA108AF56D}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D2B2F6-3097-4E22-A65F-6296469F47C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA0B5D-641F-42BF-95E1-D7E244312552}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5492437-00E1-4307-8723-E61B235E4912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A01DFD8-AA67-44DD-8B15-40783F5CF84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3E580B0D-B661-419B-9CAB-7FA6887D5F65}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E9295406-33DC-4622-A50F-80C1484A5300}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421FF9C6-EE8E-49D8-93BC-94B2402DE5CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD23555-2CFB-449A-A1F4-696C1313AA49}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01201B38-97F8-4FEE-B63D-0FEA108AF56D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3081F-D88D-4CB6-BF0D-3275A8216292}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA0B5D-641F-42BF-95E1-D7E244312552}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1413B3E4-2650-4A14-80FA-F59B785ABECB}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A01DFD8-AA67-44DD-8B15-40783F5CF84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF04F5F9-3165-4FCD-8151-19926F3CBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E9295406-33DC-4622-A50F-80C1484A5300}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3482296B-D417-47BE-81D2-B5F357BEF87B}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD23555-2CFB-449A-A1F4-696C1313AA49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59DB723-C8B6-45DB-B621-C468D86A7E22}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3081F-D88D-4CB6-BF0D-3275A8216292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571BB39D-863E-40B6-B025-E2A0B5EA1F9F}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1413B3E4-2650-4A14-80FA-F59B785ABECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C0190-5874-4521-982A-C795ED351271}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF04F5F9-3165-4FCD-8151-19926F3CBEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E10DFB-C2C4-49C0-B91F-9D7E06619B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{3482296B-D417-47BE-81D2-B5F357BEF87B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A2744301-38FC-4CC1-8E9F-4810E3E0E64C}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59DB723-C8B6-45DB-B621-C468D86A7E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACA975-9D5C-4E13-84C4-9B64D4A0D310}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571BB39D-863E-40B6-B025-E2A0B5EA1F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FE83-D303-4148-AA29-3EA23AFD28C5}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C0190-5874-4521-982A-C795ED351271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2951F96B-5F36-4401-9471-09FBB0149E2F}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
+++ b/VerveStacks_IND/vt_vervestacks_IND_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_IND\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E10DFB-C2C4-49C0-B91F-9D7E06619B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2002062-1EEF-45C8-BC3C-4E3019DAD38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{A2744301-38FC-4CC1-8E9F-4810E3E0E64C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D9BE70E3-7365-4AF9-91B2-9BE00412B67A}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -4903,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEACA975-9D5C-4E13-84C4-9B64D4A0D310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C24C35-7F73-4428-A9FF-12FAE1B93B7E}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -7891,7 +7891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FE83-D303-4148-AA29-3EA23AFD28C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6682C597-8EBF-4EA6-B49A-ECC59C87761B}">
   <dimension ref="A1:U312"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25314,7 +25314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2951F96B-5F36-4401-9471-09FBB0149E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734BE20-6415-463F-9AA9-E4E0DD06B2C7}">
   <dimension ref="A1:T668"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
